--- a/natmiOut/OldD2/LR-pairs_lrc2p/Slpi-Plscr4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Slpi-Plscr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,12 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Slpi</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.415841982986468</v>
+        <v>0.608226</v>
       </c>
       <c r="H2">
-        <v>0.415841982986468</v>
+        <v>1.824678</v>
       </c>
       <c r="I2">
-        <v>0.1225182227254868</v>
+        <v>0.0971029374857513</v>
       </c>
       <c r="J2">
-        <v>0.1225182227254868</v>
+        <v>0.09793549361516969</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.9177545227346</v>
+        <v>13.91924</v>
       </c>
       <c r="N2">
-        <v>13.9177545227346</v>
+        <v>27.83848</v>
       </c>
       <c r="O2">
-        <v>0.3640788565384321</v>
+        <v>0.3453293725850098</v>
       </c>
       <c r="P2">
-        <v>0.3640788565384321</v>
+        <v>0.274317062014216</v>
       </c>
       <c r="Q2">
-        <v>5.787586639452839</v>
+        <v>8.466043668240001</v>
       </c>
       <c r="R2">
-        <v>5.787586639452839</v>
+        <v>50.79626200944</v>
       </c>
       <c r="S2">
-        <v>0.04460629443501617</v>
+        <v>0.03353249647811592</v>
       </c>
       <c r="T2">
-        <v>0.04460629443501617</v>
+        <v>0.02686537687542536</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.415841982986468</v>
+        <v>0.608226</v>
       </c>
       <c r="H3">
-        <v>0.415841982986468</v>
+        <v>1.824678</v>
       </c>
       <c r="I3">
-        <v>0.1225182227254868</v>
+        <v>0.0971029374857513</v>
       </c>
       <c r="J3">
-        <v>0.1225182227254868</v>
+        <v>0.09793549361516969</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.92009475849515</v>
+        <v>7.464930333333332</v>
       </c>
       <c r="N3">
-        <v>6.92009475849515</v>
+        <v>22.394791</v>
       </c>
       <c r="O3">
-        <v>0.1810249047498994</v>
+        <v>0.1852011825646233</v>
       </c>
       <c r="P3">
-        <v>0.1810249047498994</v>
+        <v>0.2206755998007939</v>
       </c>
       <c r="Q3">
-        <v>2.877665926826887</v>
+        <v>4.540364716921999</v>
       </c>
       <c r="R3">
-        <v>2.877665926826887</v>
+        <v>40.86328245229799</v>
       </c>
       <c r="S3">
-        <v>0.0221788495990082</v>
+        <v>0.01798357885285983</v>
       </c>
       <c r="T3">
-        <v>0.0221788495990082</v>
+        <v>0.0216119737953144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.415841982986468</v>
+        <v>0.608226</v>
       </c>
       <c r="H4">
-        <v>0.415841982986468</v>
+        <v>1.824678</v>
       </c>
       <c r="I4">
-        <v>0.1225182227254868</v>
+        <v>0.0971029374857513</v>
       </c>
       <c r="J4">
-        <v>0.1225182227254868</v>
+        <v>0.09793549361516969</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.01497929644768</v>
+        <v>0.8397610000000001</v>
       </c>
       <c r="N4">
-        <v>1.01497929644768</v>
+        <v>2.519283</v>
       </c>
       <c r="O4">
-        <v>0.0265511581668741</v>
+        <v>0.02083404979376463</v>
       </c>
       <c r="P4">
-        <v>0.0265511581668741</v>
+        <v>0.02482471424238537</v>
       </c>
       <c r="Q4">
-        <v>0.4220710033250135</v>
+        <v>0.5107644739860001</v>
       </c>
       <c r="R4">
-        <v>0.4220710033250135</v>
+        <v>4.596880265874001</v>
       </c>
       <c r="S4">
-        <v>0.003253000709908708</v>
+        <v>0.002023047434698957</v>
       </c>
       <c r="T4">
-        <v>0.003253000709908708</v>
+        <v>0.002431220643183544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.415841982986468</v>
+        <v>0.608226</v>
       </c>
       <c r="H5">
-        <v>0.415841982986468</v>
+        <v>1.824678</v>
       </c>
       <c r="I5">
-        <v>0.1225182227254868</v>
+        <v>0.0971029374857513</v>
       </c>
       <c r="J5">
-        <v>0.1225182227254868</v>
+        <v>0.09793549361516969</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.9348710338414</v>
+        <v>1.078277</v>
       </c>
       <c r="N5">
-        <v>10.9348710338414</v>
+        <v>3.234831</v>
       </c>
       <c r="O5">
-        <v>0.2860486823426148</v>
+        <v>0.02675151228679487</v>
       </c>
       <c r="P5">
-        <v>0.2860486823426148</v>
+        <v>0.03187563890099274</v>
       </c>
       <c r="Q5">
-        <v>4.547178454413897</v>
+        <v>0.6558361066020001</v>
       </c>
       <c r="R5">
-        <v>4.547178454413897</v>
+        <v>5.902524959418001</v>
       </c>
       <c r="S5">
-        <v>0.0350461761735845</v>
+        <v>0.00259765042523395</v>
       </c>
       <c r="T5">
-        <v>0.0350461761735845</v>
+        <v>0.003121756430067629</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.415841982986468</v>
+        <v>0.608226</v>
       </c>
       <c r="H6">
-        <v>0.415841982986468</v>
+        <v>1.824678</v>
       </c>
       <c r="I6">
-        <v>0.1225182227254868</v>
+        <v>0.0971029374857513</v>
       </c>
       <c r="J6">
-        <v>0.1225182227254868</v>
+        <v>0.09793549361516969</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.43960821695828</v>
+        <v>11.485608</v>
       </c>
       <c r="N6">
-        <v>5.43960821695828</v>
+        <v>34.456824</v>
       </c>
       <c r="O6">
-        <v>0.1422963982021797</v>
+        <v>0.2849521816131749</v>
       </c>
       <c r="P6">
-        <v>0.1422963982021797</v>
+        <v>0.3395334345129808</v>
       </c>
       <c r="Q6">
-        <v>2.262017467609417</v>
+        <v>6.985845411408</v>
       </c>
       <c r="R6">
-        <v>2.262017467609417</v>
+        <v>62.872608702672</v>
       </c>
       <c r="S6">
-        <v>0.01743390180796921</v>
+        <v>0.02766969387761257</v>
       </c>
       <c r="T6">
-        <v>0.01743390180796921</v>
+        <v>0.03325237450788267</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.4921249704909</v>
+        <v>0.608226</v>
       </c>
       <c r="H7">
-        <v>1.4921249704909</v>
+        <v>1.824678</v>
       </c>
       <c r="I7">
-        <v>0.4396201128033132</v>
+        <v>0.0971029374857513</v>
       </c>
       <c r="J7">
-        <v>0.4396201128033132</v>
+        <v>0.09793549361516969</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.9177545227346</v>
+        <v>5.5193255</v>
       </c>
       <c r="N7">
-        <v>13.9177545227346</v>
+        <v>11.038651</v>
       </c>
       <c r="O7">
-        <v>0.3640788565384321</v>
+        <v>0.1369317011566325</v>
       </c>
       <c r="P7">
-        <v>0.3640788565384321</v>
+        <v>0.1087735505286311</v>
       </c>
       <c r="Q7">
-        <v>20.76702905653496</v>
+        <v>3.356997271563</v>
       </c>
       <c r="R7">
-        <v>20.76702905653496</v>
+        <v>20.141983629378</v>
       </c>
       <c r="S7">
-        <v>0.1600563879807268</v>
+        <v>0.01329647041723006</v>
       </c>
       <c r="T7">
-        <v>0.1600563879807268</v>
+        <v>0.01065279136329609</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.4921249704909</v>
+        <v>3.870370666666667</v>
       </c>
       <c r="H8">
-        <v>1.4921249704909</v>
+        <v>11.611112</v>
       </c>
       <c r="I8">
-        <v>0.4396201128033132</v>
+        <v>0.6179024916593814</v>
       </c>
       <c r="J8">
-        <v>0.4396201128033132</v>
+        <v>0.6232003592639469</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.92009475849515</v>
+        <v>13.91924</v>
       </c>
       <c r="N8">
-        <v>6.92009475849515</v>
+        <v>27.83848</v>
       </c>
       <c r="O8">
-        <v>0.1810249047498994</v>
+        <v>0.3453293725850098</v>
       </c>
       <c r="P8">
-        <v>0.1810249047498994</v>
+        <v>0.274317062014216</v>
       </c>
       <c r="Q8">
-        <v>10.32564618731381</v>
+        <v>53.87261819829333</v>
       </c>
       <c r="R8">
-        <v>10.32564618731381</v>
+        <v>323.23570918976</v>
       </c>
       <c r="S8">
-        <v>0.07958218904635977</v>
+        <v>0.2133798797634484</v>
       </c>
       <c r="T8">
-        <v>0.07958218904635977</v>
+        <v>0.1709544915994898</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.4921249704909</v>
+        <v>3.870370666666667</v>
       </c>
       <c r="H9">
-        <v>1.4921249704909</v>
+        <v>11.611112</v>
       </c>
       <c r="I9">
-        <v>0.4396201128033132</v>
+        <v>0.6179024916593814</v>
       </c>
       <c r="J9">
-        <v>0.4396201128033132</v>
+        <v>0.6232003592639469</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.01497929644768</v>
+        <v>7.464930333333332</v>
       </c>
       <c r="N9">
-        <v>1.01497929644768</v>
+        <v>22.394791</v>
       </c>
       <c r="O9">
-        <v>0.0265511581668741</v>
+        <v>0.1852011825646233</v>
       </c>
       <c r="P9">
-        <v>0.0265511581668741</v>
+        <v>0.2206755998007939</v>
       </c>
       <c r="Q9">
-        <v>1.514475952760869</v>
+        <v>28.89204739084355</v>
       </c>
       <c r="R9">
-        <v>1.514475952760869</v>
+        <v>260.028426517592</v>
       </c>
       <c r="S9">
-        <v>0.0116724231483798</v>
+        <v>0.1144362721649447</v>
       </c>
       <c r="T9">
-        <v>0.0116724231483798</v>
+        <v>0.1375251130766418</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.4921249704909</v>
+        <v>3.870370666666667</v>
       </c>
       <c r="H10">
-        <v>1.4921249704909</v>
+        <v>11.611112</v>
       </c>
       <c r="I10">
-        <v>0.4396201128033132</v>
+        <v>0.6179024916593814</v>
       </c>
       <c r="J10">
-        <v>0.4396201128033132</v>
+        <v>0.6232003592639469</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>10.9348710338414</v>
+        <v>0.8397610000000001</v>
       </c>
       <c r="N10">
-        <v>10.9348710338414</v>
+        <v>2.519283</v>
       </c>
       <c r="O10">
-        <v>0.2860486823426148</v>
+        <v>0.02083404979376463</v>
       </c>
       <c r="P10">
-        <v>0.2860486823426148</v>
+        <v>0.02482471424238537</v>
       </c>
       <c r="Q10">
-        <v>16.3161941186924</v>
+        <v>3.250186341410667</v>
       </c>
       <c r="R10">
-        <v>16.3161941186924</v>
+        <v>29.251677072696</v>
       </c>
       <c r="S10">
-        <v>0.1257527539986994</v>
+        <v>0.01287341127892279</v>
       </c>
       <c r="T10">
-        <v>0.1257527539986994</v>
+        <v>0.01547077083447938</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.4921249704909</v>
+        <v>3.870370666666667</v>
       </c>
       <c r="H11">
-        <v>1.4921249704909</v>
+        <v>11.611112</v>
       </c>
       <c r="I11">
-        <v>0.4396201128033132</v>
+        <v>0.6179024916593814</v>
       </c>
       <c r="J11">
-        <v>0.4396201128033132</v>
+        <v>0.6232003592639469</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.43960821695828</v>
+        <v>1.078277</v>
       </c>
       <c r="N11">
-        <v>5.43960821695828</v>
+        <v>3.234831</v>
       </c>
       <c r="O11">
-        <v>0.1422963982021797</v>
+        <v>0.02675151228679487</v>
       </c>
       <c r="P11">
-        <v>0.1422963982021797</v>
+        <v>0.03187563890099274</v>
       </c>
       <c r="Q11">
-        <v>8.11657525021093</v>
+        <v>4.173331671341334</v>
       </c>
       <c r="R11">
-        <v>8.11657525021093</v>
+        <v>37.559985042072</v>
       </c>
       <c r="S11">
-        <v>0.06255635862914741</v>
+        <v>0.0165298260976671</v>
       </c>
       <c r="T11">
-        <v>0.06255635862914741</v>
+        <v>0.01986490961486652</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.48615657962513</v>
+        <v>3.870370666666667</v>
       </c>
       <c r="H12">
-        <v>1.48615657962513</v>
+        <v>11.611112</v>
       </c>
       <c r="I12">
-        <v>0.4378616644712</v>
+        <v>0.6179024916593814</v>
       </c>
       <c r="J12">
-        <v>0.4378616644712</v>
+        <v>0.6232003592639469</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.9177545227346</v>
+        <v>11.485608</v>
       </c>
       <c r="N12">
-        <v>13.9177545227346</v>
+        <v>34.456824</v>
       </c>
       <c r="O12">
-        <v>0.3640788565384321</v>
+        <v>0.2849521816131749</v>
       </c>
       <c r="P12">
-        <v>0.3640788565384321</v>
+        <v>0.3395334345129808</v>
       </c>
       <c r="Q12">
-        <v>20.68396245756944</v>
+        <v>44.45356029203199</v>
       </c>
       <c r="R12">
-        <v>20.68396245756944</v>
+        <v>400.082042628288</v>
       </c>
       <c r="S12">
-        <v>0.1594161741226891</v>
+        <v>0.1760726630225573</v>
       </c>
       <c r="T12">
-        <v>0.1594161741226891</v>
+        <v>0.2115973583706114</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.48615657962513</v>
+        <v>3.870370666666667</v>
       </c>
       <c r="H13">
-        <v>1.48615657962513</v>
+        <v>11.611112</v>
       </c>
       <c r="I13">
-        <v>0.4378616644712</v>
+        <v>0.6179024916593814</v>
       </c>
       <c r="J13">
-        <v>0.4378616644712</v>
+        <v>0.6232003592639469</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.92009475849515</v>
+        <v>5.5193255</v>
       </c>
       <c r="N13">
-        <v>6.92009475849515</v>
+        <v>11.038651</v>
       </c>
       <c r="O13">
-        <v>0.1810249047498994</v>
+        <v>0.1369317011566325</v>
       </c>
       <c r="P13">
-        <v>0.1810249047498994</v>
+        <v>0.1087735505286311</v>
       </c>
       <c r="Q13">
-        <v>10.28434435696694</v>
+        <v>21.36183551498533</v>
       </c>
       <c r="R13">
-        <v>10.28434435696694</v>
+        <v>128.171013089912</v>
       </c>
       <c r="S13">
-        <v>0.07926386610453137</v>
+        <v>0.08461043933184102</v>
       </c>
       <c r="T13">
-        <v>0.07926386610453137</v>
+        <v>0.06778771576785801</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.48615657962513</v>
+        <v>1.597393</v>
       </c>
       <c r="H14">
-        <v>1.48615657962513</v>
+        <v>4.792179</v>
       </c>
       <c r="I14">
-        <v>0.4378616644712</v>
+        <v>0.2550228905360453</v>
       </c>
       <c r="J14">
-        <v>0.4378616644712</v>
+        <v>0.2572094450951073</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.01497929644768</v>
+        <v>13.91924</v>
       </c>
       <c r="N14">
-        <v>1.01497929644768</v>
+        <v>27.83848</v>
       </c>
       <c r="O14">
-        <v>0.0265511581668741</v>
+        <v>0.3453293725850098</v>
       </c>
       <c r="P14">
-        <v>0.0265511581668741</v>
+        <v>0.274317062014216</v>
       </c>
       <c r="Q14">
-        <v>1.508418159599005</v>
+        <v>22.23449654132</v>
       </c>
       <c r="R14">
-        <v>1.508418159599005</v>
+        <v>133.40697924792</v>
       </c>
       <c r="S14">
-        <v>0.01162573430858559</v>
+        <v>0.08806689478362816</v>
       </c>
       <c r="T14">
-        <v>0.01162573430858559</v>
+        <v>0.07055693930079665</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.48615657962513</v>
+        <v>1.597393</v>
       </c>
       <c r="H15">
-        <v>1.48615657962513</v>
+        <v>4.792179</v>
       </c>
       <c r="I15">
-        <v>0.4378616644712</v>
+        <v>0.2550228905360453</v>
       </c>
       <c r="J15">
-        <v>0.4378616644712</v>
+        <v>0.2572094450951073</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.9348710338414</v>
+        <v>7.464930333333332</v>
       </c>
       <c r="N15">
-        <v>10.9348710338414</v>
+        <v>22.394791</v>
       </c>
       <c r="O15">
-        <v>0.2860486823426148</v>
+        <v>0.1852011825646233</v>
       </c>
       <c r="P15">
-        <v>0.2860486823426148</v>
+        <v>0.2206755998007939</v>
       </c>
       <c r="Q15">
-        <v>16.25093053429564</v>
+        <v>11.92442745995433</v>
       </c>
       <c r="R15">
-        <v>16.25093053429564</v>
+        <v>107.319847139589</v>
       </c>
       <c r="S15">
-        <v>0.1252497521703309</v>
+        <v>0.04723054090832408</v>
       </c>
       <c r="T15">
-        <v>0.1252497521703309</v>
+        <v>0.05675984857079219</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,991 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.597393</v>
+      </c>
+      <c r="H16">
+        <v>4.792179</v>
+      </c>
+      <c r="I16">
+        <v>0.2550228905360453</v>
+      </c>
+      <c r="J16">
+        <v>0.2572094450951073</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.8397610000000001</v>
+      </c>
+      <c r="N16">
+        <v>2.519283</v>
+      </c>
+      <c r="O16">
+        <v>0.02083404979376463</v>
+      </c>
+      <c r="P16">
+        <v>0.02482471424238537</v>
+      </c>
+      <c r="Q16">
+        <v>1.341428343073</v>
+      </c>
+      <c r="R16">
+        <v>12.072855087657</v>
+      </c>
+      <c r="S16">
+        <v>0.005313159599977755</v>
+      </c>
+      <c r="T16">
+        <v>0.006385150974928549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.597393</v>
+      </c>
+      <c r="H17">
+        <v>4.792179</v>
+      </c>
+      <c r="I17">
+        <v>0.2550228905360453</v>
+      </c>
+      <c r="J17">
+        <v>0.2572094450951073</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.078277</v>
+      </c>
+      <c r="N17">
+        <v>3.234831</v>
+      </c>
+      <c r="O17">
+        <v>0.02675151228679487</v>
+      </c>
+      <c r="P17">
+        <v>0.03187563890099274</v>
+      </c>
+      <c r="Q17">
+        <v>1.722432131861</v>
+      </c>
+      <c r="R17">
+        <v>15.501889186749</v>
+      </c>
+      <c r="S17">
+        <v>0.006822247989588959</v>
+      </c>
+      <c r="T17">
+        <v>0.008198715393776361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.597393</v>
+      </c>
+      <c r="H18">
+        <v>4.792179</v>
+      </c>
+      <c r="I18">
+        <v>0.2550228905360453</v>
+      </c>
+      <c r="J18">
+        <v>0.2572094450951073</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.485608</v>
+      </c>
+      <c r="N18">
+        <v>34.456824</v>
+      </c>
+      <c r="O18">
+        <v>0.2849521816131749</v>
+      </c>
+      <c r="P18">
+        <v>0.3395334345129808</v>
+      </c>
+      <c r="Q18">
+        <v>18.347029819944</v>
+      </c>
+      <c r="R18">
+        <v>165.123268379496</v>
+      </c>
+      <c r="S18">
+        <v>0.072669329019544</v>
+      </c>
+      <c r="T18">
+        <v>0.08733120628231976</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.597393</v>
+      </c>
+      <c r="H19">
+        <v>4.792179</v>
+      </c>
+      <c r="I19">
+        <v>0.2550228905360453</v>
+      </c>
+      <c r="J19">
+        <v>0.2572094450951073</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.5193255</v>
+      </c>
+      <c r="N19">
+        <v>11.038651</v>
+      </c>
+      <c r="O19">
+        <v>0.1369317011566325</v>
+      </c>
+      <c r="P19">
+        <v>0.1087735505286311</v>
+      </c>
+      <c r="Q19">
+        <v>8.8165319184215</v>
+      </c>
+      <c r="R19">
+        <v>52.899191510529</v>
+      </c>
+      <c r="S19">
+        <v>0.03492071823498236</v>
+      </c>
+      <c r="T19">
+        <v>0.02797758457249383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.48615657962513</v>
-      </c>
-      <c r="H16">
-        <v>1.48615657962513</v>
-      </c>
-      <c r="I16">
-        <v>0.4378616644712</v>
-      </c>
-      <c r="J16">
-        <v>0.4378616644712</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>5.43960821695828</v>
-      </c>
-      <c r="N16">
-        <v>5.43960821695828</v>
-      </c>
-      <c r="O16">
-        <v>0.1422963982021797</v>
-      </c>
-      <c r="P16">
-        <v>0.1422963982021797</v>
-      </c>
-      <c r="Q16">
-        <v>8.084109542215469</v>
-      </c>
-      <c r="R16">
-        <v>8.084109542215469</v>
-      </c>
-      <c r="S16">
-        <v>0.06230613776506307</v>
-      </c>
-      <c r="T16">
-        <v>0.06230613776506307</v>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.02798933333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.083968</v>
+      </c>
+      <c r="I20">
+        <v>0.004468481263435831</v>
+      </c>
+      <c r="J20">
+        <v>0.004506793816705506</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>13.91924</v>
+      </c>
+      <c r="N20">
+        <v>27.83848</v>
+      </c>
+      <c r="O20">
+        <v>0.3453293725850098</v>
+      </c>
+      <c r="P20">
+        <v>0.274317062014216</v>
+      </c>
+      <c r="Q20">
+        <v>0.3895902481066667</v>
+      </c>
+      <c r="R20">
+        <v>2.33754148864</v>
+      </c>
+      <c r="S20">
+        <v>0.001543097831110167</v>
+      </c>
+      <c r="T20">
+        <v>0.00123629043890249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.02798933333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.083968</v>
+      </c>
+      <c r="I21">
+        <v>0.004468481263435831</v>
+      </c>
+      <c r="J21">
+        <v>0.004506793816705506</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.464930333333332</v>
+      </c>
+      <c r="N21">
+        <v>22.394791</v>
+      </c>
+      <c r="O21">
+        <v>0.1852011825646233</v>
+      </c>
+      <c r="P21">
+        <v>0.2206755998007939</v>
+      </c>
+      <c r="Q21">
+        <v>0.2089384234097778</v>
+      </c>
+      <c r="R21">
+        <v>1.880445810688</v>
+      </c>
+      <c r="S21">
+        <v>0.000827568014256178</v>
+      </c>
+      <c r="T21">
+        <v>0.0009945394286799967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.02798933333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.083968</v>
+      </c>
+      <c r="I22">
+        <v>0.004468481263435831</v>
+      </c>
+      <c r="J22">
+        <v>0.004506793816705506</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.8397610000000001</v>
+      </c>
+      <c r="N22">
+        <v>2.519283</v>
+      </c>
+      <c r="O22">
+        <v>0.02083404979376463</v>
+      </c>
+      <c r="P22">
+        <v>0.02482471424238537</v>
+      </c>
+      <c r="Q22">
+        <v>0.02350435054933334</v>
+      </c>
+      <c r="R22">
+        <v>0.211539154944</v>
+      </c>
+      <c r="S22">
+        <v>9.30965611449264E-05</v>
+      </c>
+      <c r="T22">
+        <v>0.0001118798686490635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.02798933333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.083968</v>
+      </c>
+      <c r="I23">
+        <v>0.004468481263435831</v>
+      </c>
+      <c r="J23">
+        <v>0.004506793816705506</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.078277</v>
+      </c>
+      <c r="N23">
+        <v>3.234831</v>
+      </c>
+      <c r="O23">
+        <v>0.02675151228679487</v>
+      </c>
+      <c r="P23">
+        <v>0.03187563890099274</v>
+      </c>
+      <c r="Q23">
+        <v>0.03018025437866667</v>
+      </c>
+      <c r="R23">
+        <v>0.271622289408</v>
+      </c>
+      <c r="S23">
+        <v>0.0001195386314221163</v>
+      </c>
+      <c r="T23">
+        <v>0.0001436569323025316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.02798933333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.083968</v>
+      </c>
+      <c r="I24">
+        <v>0.004468481263435831</v>
+      </c>
+      <c r="J24">
+        <v>0.004506793816705506</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.485608</v>
+      </c>
+      <c r="N24">
+        <v>34.456824</v>
+      </c>
+      <c r="O24">
+        <v>0.2849521816131749</v>
+      </c>
+      <c r="P24">
+        <v>0.3395334345129808</v>
+      </c>
+      <c r="Q24">
+        <v>0.321474510848</v>
+      </c>
+      <c r="R24">
+        <v>2.893270597632</v>
+      </c>
+      <c r="S24">
+        <v>0.001273303484513636</v>
+      </c>
+      <c r="T24">
+        <v>0.001530207183227886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.02798933333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.083968</v>
+      </c>
+      <c r="I25">
+        <v>0.004468481263435831</v>
+      </c>
+      <c r="J25">
+        <v>0.004506793816705506</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.5193255</v>
+      </c>
+      <c r="N25">
+        <v>11.038651</v>
+      </c>
+      <c r="O25">
+        <v>0.1369317011566325</v>
+      </c>
+      <c r="P25">
+        <v>0.1087735505286311</v>
+      </c>
+      <c r="Q25">
+        <v>0.1544822411946667</v>
+      </c>
+      <c r="R25">
+        <v>0.926893447168</v>
+      </c>
+      <c r="S25">
+        <v>0.0006118767409888069</v>
+      </c>
+      <c r="T25">
+        <v>0.0004902199649435387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.159745</v>
+      </c>
+      <c r="H26">
+        <v>0.31949</v>
+      </c>
+      <c r="I26">
+        <v>0.02550319905538622</v>
+      </c>
+      <c r="J26">
+        <v>0.01714790820907062</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>13.91924</v>
+      </c>
+      <c r="N26">
+        <v>27.83848</v>
+      </c>
+      <c r="O26">
+        <v>0.3453293725850098</v>
+      </c>
+      <c r="P26">
+        <v>0.274317062014216</v>
+      </c>
+      <c r="Q26">
+        <v>2.2235289938</v>
+      </c>
+      <c r="R26">
+        <v>8.8941159752</v>
+      </c>
+      <c r="S26">
+        <v>0.008807003728707137</v>
+      </c>
+      <c r="T26">
+        <v>0.00470396379960171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.159745</v>
+      </c>
+      <c r="H27">
+        <v>0.31949</v>
+      </c>
+      <c r="I27">
+        <v>0.02550319905538622</v>
+      </c>
+      <c r="J27">
+        <v>0.01714790820907062</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>7.464930333333332</v>
+      </c>
+      <c r="N27">
+        <v>22.394791</v>
+      </c>
+      <c r="O27">
+        <v>0.1852011825646233</v>
+      </c>
+      <c r="P27">
+        <v>0.2206755998007939</v>
+      </c>
+      <c r="Q27">
+        <v>1.192485296098333</v>
+      </c>
+      <c r="R27">
+        <v>7.15491177659</v>
+      </c>
+      <c r="S27">
+        <v>0.004723222624238512</v>
+      </c>
+      <c r="T27">
+        <v>0.003784124929365618</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0.159745</v>
+      </c>
+      <c r="H28">
+        <v>0.31949</v>
+      </c>
+      <c r="I28">
+        <v>0.02550319905538622</v>
+      </c>
+      <c r="J28">
+        <v>0.01714790820907062</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.8397610000000001</v>
+      </c>
+      <c r="N28">
+        <v>2.519283</v>
+      </c>
+      <c r="O28">
+        <v>0.02083404979376463</v>
+      </c>
+      <c r="P28">
+        <v>0.02482471424238537</v>
+      </c>
+      <c r="Q28">
+        <v>0.134147620945</v>
+      </c>
+      <c r="R28">
+        <v>0.8048857256700001</v>
+      </c>
+      <c r="S28">
+        <v>0.0005313349190202077</v>
+      </c>
+      <c r="T28">
+        <v>0.0004256919211448324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.159745</v>
+      </c>
+      <c r="H29">
+        <v>0.31949</v>
+      </c>
+      <c r="I29">
+        <v>0.02550319905538622</v>
+      </c>
+      <c r="J29">
+        <v>0.01714790820907062</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.078277</v>
+      </c>
+      <c r="N29">
+        <v>3.234831</v>
+      </c>
+      <c r="O29">
+        <v>0.02675151228679487</v>
+      </c>
+      <c r="P29">
+        <v>0.03187563890099274</v>
+      </c>
+      <c r="Q29">
+        <v>0.172249359365</v>
+      </c>
+      <c r="R29">
+        <v>1.03349615619</v>
+      </c>
+      <c r="S29">
+        <v>0.0006822491428827398</v>
+      </c>
+      <c r="T29">
+        <v>0.0005466005299797043</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.159745</v>
+      </c>
+      <c r="H30">
+        <v>0.31949</v>
+      </c>
+      <c r="I30">
+        <v>0.02550319905538622</v>
+      </c>
+      <c r="J30">
+        <v>0.01714790820907062</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>11.485608</v>
+      </c>
+      <c r="N30">
+        <v>34.456824</v>
+      </c>
+      <c r="O30">
+        <v>0.2849521816131749</v>
+      </c>
+      <c r="P30">
+        <v>0.3395334345129808</v>
+      </c>
+      <c r="Q30">
+        <v>1.83476844996</v>
+      </c>
+      <c r="R30">
+        <v>11.00861069976</v>
+      </c>
+      <c r="S30">
+        <v>0.007267192208947364</v>
+      </c>
+      <c r="T30">
+        <v>0.005822288168939086</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.159745</v>
+      </c>
+      <c r="H31">
+        <v>0.31949</v>
+      </c>
+      <c r="I31">
+        <v>0.02550319905538622</v>
+      </c>
+      <c r="J31">
+        <v>0.01714790820907062</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.5193255</v>
+      </c>
+      <c r="N31">
+        <v>11.038651</v>
+      </c>
+      <c r="O31">
+        <v>0.1369317011566325</v>
+      </c>
+      <c r="P31">
+        <v>0.1087735505286311</v>
+      </c>
+      <c r="Q31">
+        <v>0.8816846519975</v>
+      </c>
+      <c r="R31">
+        <v>3.52673860799</v>
+      </c>
+      <c r="S31">
+        <v>0.003492196431590258</v>
+      </c>
+      <c r="T31">
+        <v>0.001865238860039672</v>
       </c>
     </row>
   </sheetData>
